--- a/SAE_3_01/fichiers genere/S4BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFA.xlsx
@@ -3302,10 +3302,26 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3322,10 +3338,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3342,8 +3370,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -3362,8 +3398,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -3382,10 +3426,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -3402,10 +3454,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5093,10 +5153,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5113,10 +5181,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6884,9 +6960,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -6904,10 +6988,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8675,8 +8771,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -8695,9 +8799,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10466,9 +10578,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12257,10 +12377,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -12277,10 +12405,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14048,9 +14184,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFA.xlsx
@@ -9,16 +9,16 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du relationnel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionnelle en anglais" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les organisations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R4.B.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.B.09 Management avancé des systèmes d'information" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.B.10 Cryptographie et sécurité" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.B.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.B.10 Cryptographie et sécuri" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R4.B.11 Réseau avancé" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.B.12 Sécurité système et réseau" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.B.12 Sécurité système et rés" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3274,21 +3274,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3306,17 +3294,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5053,17 +5033,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5081,22 +5053,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5113,22 +5073,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6844,18 +6792,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6872,17 +6812,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6900,17 +6832,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10386,26 +10310,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10422,22 +10330,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10454,21 +10350,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10486,16 +10370,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -10514,18 +10390,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10542,18 +10410,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12209,18 +12069,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12237,18 +12089,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -13984,17 +13828,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14012,17 +13848,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -14040,17 +13868,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14068,18 +13888,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14096,11 +13908,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -15779,17 +15587,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15807,17 +15607,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15835,22 +15627,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17566,18 +17346,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17594,18 +17366,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17622,18 +17386,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17650,18 +17406,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17678,18 +17426,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19365,17 +19105,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19393,17 +19125,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19421,17 +19145,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21148,17 +20864,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21176,17 +20884,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22923,16 +22623,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -22951,17 +22643,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFA.xlsx
@@ -3274,9 +3274,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5033,9 +5041,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5053,10 +5073,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5073,10 +5101,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6792,10 +6828,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6812,9 +6856,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8551,10 +8603,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10310,10 +10370,26 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10330,10 +10406,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10350,8 +10438,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -10370,8 +10466,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -10390,10 +10494,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10410,10 +10522,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12069,10 +12189,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12089,10 +12217,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -13828,9 +13964,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13848,9 +13992,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13868,10 +14020,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -13888,7 +14048,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -15587,9 +15751,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15607,10 +15779,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17346,10 +17530,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17366,10 +17558,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17386,10 +17586,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17406,10 +17614,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17426,10 +17642,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19105,9 +19329,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19125,9 +19357,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19145,9 +19385,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20864,9 +21112,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20884,9 +21140,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22623,8 +22887,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -22643,9 +22915,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFA.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R4.B.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.B.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.B.10 Cryptographie et sécuri" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.B.11 Réseau avancé" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.B.12 Sécurité système et rés" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R4.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R4.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R4.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R4.B.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R4.B.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.B.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.B.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.B.12" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3279,7 +3279,11 @@
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -3302,9 +3306,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3322,9 +3334,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3342,9 +3362,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3362,9 +3390,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3382,10 +3418,22 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5043,7 +5091,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B35" s="28" t="inlineStr">
@@ -5051,11 +5099,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5075,11 +5119,15 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -5103,16 +5151,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5129,10 +5181,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5149,10 +5213,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -5169,10 +5245,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6830,16 +6914,16 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6858,16 +6942,20 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -6884,10 +6972,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6904,9 +7000,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6924,9 +7028,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8605,14 +8717,14 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -8631,9 +8743,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8651,9 +8775,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8671,10 +8807,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -9633,7 +9781,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -10411,7 +10559,11 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -10448,7 +10600,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10476,7 +10632,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12245,10 +12405,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -13966,7 +14134,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -13994,7 +14162,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -14022,16 +14190,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14050,11 +14218,15 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -14072,10 +14244,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -14092,10 +14272,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -15759,7 +15947,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -15781,20 +15969,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15811,10 +15995,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17560,7 +17756,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -17588,7 +17784,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -17616,7 +17812,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -17644,7 +17840,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -17670,10 +17866,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -17690,10 +17894,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -22897,7 +23109,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22917,13 +23133,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -22943,10 +23159,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFA.xlsx
@@ -9781,7 +9781,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -10606,7 +10606,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -14284,7 +14288,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -23175,7 +23183,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
